--- a/MMAPlus_Supervisor/MMAPlus_Supervisor.xlsx
+++ b/MMAPlus_Supervisor/MMAPlus_Supervisor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D2CE5-DF6D-4C47-8A36-7BA3BA550378}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B211BE5-31C0-474A-ADDF-7785B4B4F2C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="6" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -813,7 +813,7 @@
     <t>Productivity Visit Based</t>
   </si>
   <si>
-    <t>Productivity Unique Based1111111111</t>
+    <t>Productivity Unique Based</t>
   </si>
 </sst>
 </file>
